--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="649">
   <si>
     <t xml:space="preserve">Term</t>
   </si>
@@ -200,6 +200,18 @@
     <t xml:space="preserve">1 (11.1%)</t>
   </si>
   <si>
+    <t xml:space="preserve">LGG, BRAF fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (58.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115 (41.8%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">LGG, BRAF V600E</t>
   </si>
   <si>
@@ -209,18 +221,6 @@
     <t xml:space="preserve">34 (12.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">LGG, BRAF fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (58.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115 (41.8%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LGG, Other alteration</t>
   </si>
   <si>
@@ -602,18 +602,18 @@
     <t xml:space="preserve">2 (2.2%)</t>
   </si>
   <si>
+    <t xml:space="preserve">GNG/GNT, BRAF fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (5.4%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNG/GNT, BRAF V600E</t>
   </si>
   <si>
     <t xml:space="preserve">22 (23.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">GNG/GNT, BRAF fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (5.4%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GNG/GNT, Other alteration</t>
   </si>
   <si>
@@ -1292,16 +1292,16 @@
     <t xml:space="preserve">6.64</t>
   </si>
   <si>
-    <t xml:space="preserve">12 (10.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (13.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78 (67.8%)</t>
+    <t xml:space="preserve">12 (10.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (13.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (6.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79 (68.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (0.9%)</t>
@@ -1313,13 +1313,13 @@
     <t xml:space="preserve">4 (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">32 (41%)</t>
+    <t xml:space="preserve">32 (40.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">6 (37.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">46 (59%)</t>
+    <t xml:space="preserve">47 (59.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">7 (87.5%)</t>
@@ -1337,22 +1337,22 @@
     <t xml:space="preserve">1 (12.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (7.7%)</t>
+    <t xml:space="preserve">6 (7.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (18.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">71 (91%)</t>
+    <t xml:space="preserve">72 (91.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">12 (75%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (2.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 (94.9%)</t>
+    <t xml:space="preserve">2 (2.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75 (94.9%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, MPE</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">2 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">28 (35.9%)</t>
+    <t xml:space="preserve">29 (36.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, PF B</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">3 (37.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">14 (17.9%)</t>
+    <t xml:space="preserve">14 (17.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">EPN, To be classified</t>
@@ -1394,28 +1394,25 @@
     <t xml:space="preserve">9 (56.2%)</t>
   </si>
   <si>
-    <t xml:space="preserve">24 (30.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (25.6%)</t>
+    <t xml:space="preserve">24 (30.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (25.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">15 (19.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (20.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (16.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 (74.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (5.1%)</t>
+    <t xml:space="preserve">16 (20.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (16.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58 (73.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (6.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">5.46</t>
@@ -1454,7 +1451,7 @@
     <t xml:space="preserve">4.31</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76</t>
+    <t xml:space="preserve">6.88</t>
   </si>
   <si>
     <t xml:space="preserve">9 (8.3%)</t>
@@ -1637,16 +1634,16 @@
     <t xml:space="preserve">8 (30.8%)</t>
   </si>
   <si>
+    <t xml:space="preserve">ATRT, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (19.2%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATRT, TYR</t>
   </si>
   <si>
     <t xml:space="preserve">6 (23.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRT, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (19.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">9 (34.6%)</t>
@@ -2593,39 +2590,39 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
@@ -2659,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
@@ -2719,7 +2716,7 @@
         <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
@@ -2736,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -2856,7 +2853,7 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -3407,7 +3404,7 @@
         <v>450</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>437</v>
@@ -3536,7 +3533,7 @@
         <v>451</v>
       </c>
       <c r="E25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -3576,7 +3573,7 @@
         <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -3596,7 +3593,7 @@
         <v>431</v>
       </c>
       <c r="E28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
         <v>131</v>
@@ -3616,7 +3613,7 @@
         <v>435</v>
       </c>
       <c r="E29" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -3636,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -3647,19 +3644,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" t="s">
         <v>463</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>464</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>465</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>466</v>
-      </c>
-      <c r="F31" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="32">
@@ -3667,19 +3664,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" t="s">
         <v>468</v>
-      </c>
-      <c r="C32" t="s">
-        <v>469</v>
       </c>
       <c r="D32" t="s">
         <v>270</v>
       </c>
       <c r="E32" t="s">
+        <v>469</v>
+      </c>
+      <c r="F32" t="s">
         <v>470</v>
-      </c>
-      <c r="F32" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="33">
@@ -3687,16 +3684,16 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C33" t="s">
         <v>472</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>473</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>474</v>
-      </c>
-      <c r="E33" t="s">
-        <v>475</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3741,19 +3738,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" t="s">
         <v>476</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>477</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>478</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>479</v>
-      </c>
-      <c r="F2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="3">
@@ -3764,16 +3761,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>173</v>
       </c>
       <c r="E3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F3" t="s">
         <v>482</v>
-      </c>
-      <c r="F3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="4">
@@ -3781,19 +3778,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" t="s">
         <v>484</v>
-      </c>
-      <c r="C4" t="s">
-        <v>485</v>
       </c>
       <c r="D4" t="s">
         <v>169</v>
       </c>
       <c r="E4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" t="s">
         <v>486</v>
-      </c>
-      <c r="F4" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -3810,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3824,7 +3821,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
         <v>197</v>
@@ -3833,7 +3830,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
@@ -3844,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3864,7 +3861,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3884,7 +3881,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3901,19 +3898,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
         <v>175</v>
       </c>
       <c r="E10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" t="s">
         <v>493</v>
-      </c>
-      <c r="F10" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="11">
@@ -3924,13 +3921,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>495</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3944,13 +3941,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3961,19 +3958,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
         <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14">
@@ -3984,16 +3981,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>499</v>
       </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>500</v>
-      </c>
       <c r="F14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15">
@@ -4010,7 +4007,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -4024,16 +4021,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D16" t="s">
         <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
@@ -4050,10 +4047,10 @@
         <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18">
@@ -4064,7 +4061,7 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4090,10 +4087,10 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20">
@@ -4104,16 +4101,16 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
         <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21">
@@ -4124,13 +4121,13 @@
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D21" t="s">
         <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -4144,13 +4141,13 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D22" t="s">
         <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4161,19 +4158,19 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C23" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D23" t="s">
         <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24">
@@ -4181,19 +4178,19 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
+        <v>510</v>
+      </c>
+      <c r="C24" t="s">
         <v>511</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>471</v>
+      </c>
+      <c r="E24" t="s">
         <v>512</v>
       </c>
-      <c r="D24" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>513</v>
-      </c>
-      <c r="F24" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="25">
@@ -4201,19 +4198,19 @@
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C25" t="s">
         <v>335</v>
       </c>
       <c r="D25" t="s">
+        <v>515</v>
+      </c>
+      <c r="E25" t="s">
         <v>516</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>517</v>
-      </c>
-      <c r="F25" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="26">
@@ -4221,19 +4218,19 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" t="s">
         <v>519</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>520</v>
-      </c>
-      <c r="D26" t="s">
-        <v>521</v>
       </c>
       <c r="E26" t="s">
         <v>276</v>
       </c>
       <c r="F26" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4272,16 +4269,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C2" t="s">
         <v>523</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>524</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>525</v>
-      </c>
-      <c r="E2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="3">
@@ -4298,7 +4295,7 @@
         <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -4306,7 +4303,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C4" t="s">
         <v>134</v>
@@ -4315,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5">
@@ -4417,7 +4414,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11">
@@ -4451,7 +4448,7 @@
         <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13">
@@ -4473,7 +4470,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s">
         <v>170</v>
@@ -4485,15 +4482,15 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -4502,41 +4499,41 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
         <v>536</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" t="s">
         <v>538</v>
-      </c>
-      <c r="B17" t="s">
-        <v>528</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="18">
@@ -4553,7 +4550,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19">
@@ -4561,7 +4558,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C19" t="s">
         <v>143</v>
@@ -4595,7 +4592,7 @@
         <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
         <v>148</v>
@@ -4604,7 +4601,7 @@
         <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22">
@@ -4621,7 +4618,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
@@ -4655,7 +4652,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25">
@@ -4672,7 +4669,7 @@
         <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
@@ -4697,16 +4694,16 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" t="s">
         <v>543</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>544</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>545</v>
-      </c>
-      <c r="E27" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="28">
@@ -4714,16 +4711,16 @@
         <v>114</v>
       </c>
       <c r="B28" t="s">
+        <v>546</v>
+      </c>
+      <c r="C28" t="s">
         <v>547</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>548</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>549</v>
-      </c>
-      <c r="E28" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="29">
@@ -4731,16 +4728,16 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
+        <v>550</v>
+      </c>
+      <c r="C29" t="s">
         <v>551</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>552</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>553</v>
-      </c>
-      <c r="E29" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4782,19 +4779,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" t="s">
         <v>555</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" t="s">
         <v>556</v>
       </c>
-      <c r="D2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>557</v>
-      </c>
-      <c r="F2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="3">
@@ -4811,7 +4808,7 @@
         <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4831,7 +4828,7 @@
         <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F4" t="s">
         <v>167</v>
@@ -4851,7 +4848,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4951,7 +4948,7 @@
         <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F10" t="s">
         <v>176</v>
@@ -4971,7 +4968,7 @@
         <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -5008,10 +5005,10 @@
         <v>239</v>
       </c>
       <c r="D13" t="s">
+        <v>563</v>
+      </c>
+      <c r="E13" t="s">
         <v>564</v>
-      </c>
-      <c r="E13" t="s">
-        <v>565</v>
       </c>
       <c r="F13" t="s">
         <v>167</v>
@@ -5031,7 +5028,7 @@
         <v>175</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -5039,7 +5036,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B15" t="s">
         <v>175</v>
@@ -5051,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5059,7 +5056,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B16" t="s">
         <v>197</v>
@@ -5071,7 +5068,7 @@
         <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F16" t="s">
         <v>167</v>
@@ -5079,7 +5076,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -5091,7 +5088,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5099,7 +5096,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -5111,7 +5108,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5119,7 +5116,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -5131,7 +5128,7 @@
         <v>175</v>
       </c>
       <c r="E19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5151,7 +5148,7 @@
         <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5171,7 +5168,7 @@
         <v>175</v>
       </c>
       <c r="E21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F21" t="s">
         <v>176</v>
@@ -5191,7 +5188,7 @@
         <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5211,7 +5208,7 @@
         <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5231,7 +5228,7 @@
         <v>175</v>
       </c>
       <c r="E24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
         <v>176</v>
@@ -5251,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5291,7 +5288,7 @@
         <v>173</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -5308,10 +5305,10 @@
         <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
         <v>176</v>
@@ -5325,13 +5322,13 @@
         <v>173</v>
       </c>
       <c r="C29" t="s">
+        <v>578</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
         <v>579</v>
-      </c>
-      <c r="D29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>580</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -5351,7 +5348,7 @@
         <v>175</v>
       </c>
       <c r="E30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -5362,19 +5359,19 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
+        <v>581</v>
+      </c>
+      <c r="C31" t="s">
         <v>582</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>583</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>584</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>585</v>
-      </c>
-      <c r="F31" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="32">
@@ -5382,19 +5379,19 @@
         <v>114</v>
       </c>
       <c r="B32" t="s">
+        <v>586</v>
+      </c>
+      <c r="C32" t="s">
         <v>587</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>588</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>589</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>590</v>
-      </c>
-      <c r="F32" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="33">
@@ -5402,19 +5399,19 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
       </c>
       <c r="D33" t="s">
+        <v>592</v>
+      </c>
+      <c r="E33" t="s">
         <v>593</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>594</v>
-      </c>
-      <c r="F33" t="s">
-        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -5479,13 +5476,13 @@
         <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D3" t="s">
         <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F3" t="s">
         <v>176</v>
@@ -5499,13 +5496,13 @@
         <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D4" t="s">
         <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F4" t="s">
         <v>176</v>
@@ -5536,7 +5533,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -5605,7 +5602,7 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -5636,7 +5633,7 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C11" t="s">
         <v>175</v>
@@ -5645,7 +5642,7 @@
         <v>245</v>
       </c>
       <c r="E11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F11" t="s">
         <v>167</v>
@@ -5665,7 +5662,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -5685,7 +5682,7 @@
         <v>245</v>
       </c>
       <c r="E13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -5705,7 +5702,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F14" t="s">
         <v>176</v>
@@ -5725,7 +5722,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -5745,7 +5742,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F16" t="s">
         <v>176</v>
@@ -5765,7 +5762,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -5785,7 +5782,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5805,7 +5802,7 @@
         <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5825,7 +5822,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F20" t="s">
         <v>167</v>
@@ -5845,7 +5842,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -5856,19 +5853,19 @@
         <v>108</v>
       </c>
       <c r="B22" t="s">
+        <v>607</v>
+      </c>
+      <c r="C22" t="s">
         <v>608</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>609</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>610</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>611</v>
-      </c>
-      <c r="F22" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="23">
@@ -5882,10 +5879,10 @@
         <v>#N/A</v>
       </c>
       <c r="D23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E23" t="s">
         <v>613</v>
-      </c>
-      <c r="E23" t="s">
-        <v>614</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -5896,19 +5893,19 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
+        <v>614</v>
+      </c>
+      <c r="C24" t="s">
         <v>615</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>616</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>614</v>
+      </c>
+      <c r="F24" t="s">
         <v>617</v>
-      </c>
-      <c r="E24" t="s">
-        <v>615</v>
-      </c>
-      <c r="F24" t="s">
-        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -5947,16 +5944,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D2" t="s">
         <v>619</v>
       </c>
-      <c r="C2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>620</v>
-      </c>
-      <c r="E2" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3">
@@ -6157,7 +6154,7 @@
         <v>227</v>
       </c>
       <c r="D14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -6219,16 +6216,16 @@
         <v>108</v>
       </c>
       <c r="B18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C18" t="s">
         <v>622</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>623</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>624</v>
-      </c>
-      <c r="E18" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="19">
@@ -6236,13 +6233,13 @@
         <v>114</v>
       </c>
       <c r="B19" t="s">
+        <v>625</v>
+      </c>
+      <c r="C19" t="s">
         <v>626</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>627</v>
-      </c>
-      <c r="D19" t="s">
-        <v>628</v>
       </c>
       <c r="E19" t="e">
         <v>#N/A</v>
@@ -6256,7 +6253,7 @@
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D20" t="e">
         <v>#N/A</v>
@@ -6304,19 +6301,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C2" t="s">
         <v>630</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E2" t="s">
         <v>631</v>
       </c>
-      <c r="D2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>632</v>
-      </c>
-      <c r="F2" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="3">
@@ -6333,7 +6330,7 @@
         <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -6353,7 +6350,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F4" t="s">
         <v>131</v>
@@ -6373,7 +6370,7 @@
         <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -6453,7 +6450,7 @@
         <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -6473,7 +6470,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -6493,7 +6490,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -6513,7 +6510,7 @@
         <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F12" t="s">
         <v>131</v>
@@ -6521,7 +6518,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -6533,7 +6530,7 @@
         <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -6553,7 +6550,7 @@
         <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F14" t="s">
         <v>131</v>
@@ -6573,7 +6570,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -6593,7 +6590,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F16" t="s">
         <v>131</v>
@@ -6613,7 +6610,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -6633,7 +6630,7 @@
         <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -6644,19 +6641,19 @@
         <v>108</v>
       </c>
       <c r="B19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" t="s">
         <v>643</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>644</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>645</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>646</v>
-      </c>
-      <c r="F19" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="20">
@@ -6673,7 +6670,7 @@
         <v>#N/A</v>
       </c>
       <c r="E20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F20" t="e">
         <v>#N/A</v>
@@ -6693,7 +6690,7 @@
         <v>#N/A</v>
       </c>
       <c r="E21" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F21" t="e">
         <v>#N/A</v>
@@ -7420,19 +7417,19 @@
         <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
         <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -7440,19 +7437,19 @@
         <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
         <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -7569,7 +7566,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
         <v>175</v>
@@ -8114,7 +8111,7 @@
         <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>251</v>
@@ -8274,7 +8271,7 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>266</v>

--- a/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
+++ b/analyses/demo-clin-stats/results/demo-clin-stats-by-histology.xlsx
@@ -209,7 +209,7 @@
     <t xml:space="preserve">3 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">115 (41.8%)</t>
+    <t xml:space="preserve">116 (42.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">LGG, BRAF V600E</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">9 (19.6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">68 (24.7%)</t>
+    <t xml:space="preserve">69 (25.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">LGG, To be classified</t>
@@ -239,13 +239,10 @@
     <t xml:space="preserve">1 (2.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">35 (12.7%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">LGG, WT</t>
   </si>
   <si>
-    <t xml:space="preserve">19 (6.9%)</t>
+    <t xml:space="preserve">18 (6.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">SEGA</t>
@@ -773,27 +770,27 @@
     <t xml:space="preserve">8 (26.7%)</t>
   </si>
   <si>
+    <t xml:space="preserve">25 (20.7%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, Group4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53 (43.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB, SHH</t>
+  </si>
+  <si>
     <t xml:space="preserve">24 (19.8%)</t>
   </si>
   <si>
-    <t xml:space="preserve">MB, Group4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 (43.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB, SHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (20.7%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">MB, To be classified</t>
   </si>
   <si>
@@ -1358,6 +1355,9 @@
     <t xml:space="preserve">EPN, MPE</t>
   </si>
   <si>
+    <t xml:space="preserve">7 (8.9%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPN, PF A</t>
   </si>
   <si>
@@ -1385,27 +1385,30 @@
     <t xml:space="preserve">3 (37.5%)</t>
   </si>
   <si>
+    <t xml:space="preserve">15 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPN, To be classified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (56.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (26.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (25.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (20.3%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 (17.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">EPN, To be classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (56.2%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (30.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (25.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (20.3%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">13 (16.5%)</t>
   </si>
   <si>
@@ -1454,25 +1457,25 @@
     <t xml:space="preserve">6.88</t>
   </si>
   <si>
-    <t xml:space="preserve">9 (8.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (25.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (5.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (4.6%)</t>
+    <t xml:space="preserve">9 (8.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (25.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (5.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 (56.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (4.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">12 (42.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">28 (45.9%)</t>
+    <t xml:space="preserve">29 (46%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (20%)</t>
@@ -1484,13 +1487,13 @@
     <t xml:space="preserve">16 (57.1%)</t>
   </si>
   <si>
-    <t xml:space="preserve">30 (49.2%)</t>
+    <t xml:space="preserve">31 (49.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">4 (80%)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 (4.9%)</t>
+    <t xml:space="preserve">3 (4.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">2 (7.1%)</t>
@@ -1505,7 +1508,7 @@
     <t xml:space="preserve">17 (60.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">15 (24.6%)</t>
+    <t xml:space="preserve">15 (23.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (60%)</t>
@@ -1514,7 +1517,7 @@
     <t xml:space="preserve">5 (17.9%)</t>
   </si>
   <si>
-    <t xml:space="preserve">46 (75.4%)</t>
+    <t xml:space="preserve">48 (76.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">1 (1.6%)</t>
@@ -1526,37 +1529,37 @@
     <t xml:space="preserve">6 (21.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">14 (23%)</t>
+    <t xml:space="preserve">14 (22.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">27 (96.4%)</t>
   </si>
   <si>
-    <t xml:space="preserve">43 (70.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (26.2%)</t>
+    <t xml:space="preserve">44 (69.8%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (27%)</t>
   </si>
   <si>
     <t xml:space="preserve">7 (25%)</t>
   </si>
   <si>
-    <t xml:space="preserve">19 (31.1%)</t>
+    <t xml:space="preserve">19 (30.2%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (10.7%)</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (3.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (13.1%)</t>
+    <t xml:space="preserve">2 (3.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (14.3%)</t>
   </si>
   <si>
     <t xml:space="preserve">15 (53.6%)</t>
   </si>
   <si>
-    <t xml:space="preserve">32 (52.5%)</t>
+    <t xml:space="preserve">33 (52.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">6.51</t>
@@ -1565,9 +1568,6 @@
     <t xml:space="preserve">6.93</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.55</t>
   </si>
   <si>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">12.43</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05</t>
+    <t xml:space="preserve">9.13</t>
   </si>
   <si>
     <t xml:space="preserve">5.1</t>
@@ -1592,6 +1592,9 @@
     <t xml:space="preserve">10.84</t>
   </si>
   <si>
+    <t xml:space="preserve">9.14</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.88</t>
   </si>
   <si>
@@ -1691,85 +1694,82 @@
     <t xml:space="preserve">1.92</t>
   </si>
   <si>
-    <t xml:space="preserve">6 (7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (15.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 (68.6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (2.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (47.5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (50.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 (1.7%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (11.9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 (88.1%)</t>
+    <t xml:space="preserve">6 (7.1%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (15.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57 (67.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (2.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (47.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (50.9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (12.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 (87.7%)</t>
   </si>
   <si>
     <t xml:space="preserve">3 (50%)</t>
   </si>
   <si>
-    <t xml:space="preserve">53 (89.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (10.2%)</t>
+    <t xml:space="preserve">51 (89.5%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (10.5%)</t>
   </si>
   <si>
     <t xml:space="preserve">DHG, H3 G35</t>
   </si>
   <si>
-    <t xml:space="preserve">4 (6.8%)</t>
+    <t xml:space="preserve">4 (7%)</t>
   </si>
   <si>
     <t xml:space="preserve">HGG, H3 WT</t>
   </si>
   <si>
-    <t xml:space="preserve">47 (79.7%)</t>
+    <t xml:space="preserve">43 (75.4%)</t>
   </si>
   <si>
     <t xml:space="preserve">HGG, IDH</t>
   </si>
   <si>
-    <t xml:space="preserve">5 (8.5%)</t>
+    <t xml:space="preserve">5 (8.8%)</t>
   </si>
   <si>
     <t xml:space="preserve">HGG, PXA</t>
   </si>
   <si>
+    <t xml:space="preserve">2 (3.5%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">IHG</t>
   </si>
   <si>
-    <t xml:space="preserve">2 (3.4%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 (59.3%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (27.1%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (40.7%)</t>
+    <t xml:space="preserve">3 (5.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 (61.4%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (26.3%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (42.1%)</t>
   </si>
   <si>
     <t xml:space="preserve">5 (38.5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">17 (28.8%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (23.7%)</t>
+    <t xml:space="preserve">14 (24.6%)</t>
   </si>
   <si>
     <t xml:space="preserve">12.41</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">8.54</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37</t>
+    <t xml:space="preserve">9.08</t>
   </si>
   <si>
     <t xml:space="preserve">9.43</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">6.2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8</t>
+    <t xml:space="preserve">10.97</t>
   </si>
   <si>
     <t xml:space="preserve">8.8</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">9.87</t>
   </si>
   <si>
-    <t xml:space="preserve">10.49</t>
+    <t xml:space="preserve">9.92</t>
   </si>
   <si>
     <t xml:space="preserve">9.69</t>
@@ -2659,7 +2659,7 @@
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>56</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -2679,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
         <v>56</v>
@@ -2687,19 +2687,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -2707,19 +2707,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s">
         <v>56</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
@@ -2739,7 +2739,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
@@ -2759,7 +2759,7 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -2767,19 +2767,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -2799,7 +2799,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -2807,27 +2807,27 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
       </c>
       <c r="E26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>69</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -2859,7 +2859,7 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
         <v>56</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2879,7 +2879,7 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>56</v>
@@ -2887,19 +2887,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -2907,19 +2907,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
         <v>41</v>
@@ -2927,27 +2927,27 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
         <v>103</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" t="s">
-        <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>69</v>
@@ -2967,59 +2967,59 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>110</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>111</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>112</v>
-      </c>
-      <c r="F34" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
         <v>114</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>116</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>117</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>121</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
       </c>
       <c r="F36" t="e">
         <v>#N/A</v>
@@ -3064,19 +3064,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" t="s">
         <v>421</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>422</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>423</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>424</v>
-      </c>
-      <c r="F2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="3">
@@ -3087,16 +3087,16 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3" t="s">
         <v>426</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>427</v>
       </c>
-      <c r="E3" t="s">
-        <v>428</v>
-      </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
@@ -3107,13 +3107,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" t="s">
         <v>429</v>
-      </c>
-      <c r="D4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E4" t="s">
-        <v>430</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -3130,7 +3130,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -3147,13 +3147,13 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>432</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>433</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -3167,7 +3167,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3176,7 +3176,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
@@ -3187,13 +3187,13 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" t="s">
+        <v>434</v>
+      </c>
+      <c r="E8" t="s">
         <v>435</v>
-      </c>
-      <c r="E8" t="s">
-        <v>436</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -3207,13 +3207,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>437</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>438</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -3227,13 +3227,13 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" t="s">
+        <v>434</v>
+      </c>
+      <c r="E10" t="s">
         <v>439</v>
-      </c>
-      <c r="D10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" t="s">
-        <v>440</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -3244,36 +3244,36 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3281,19 +3281,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>441</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>442</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>434</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>436</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -3304,10 +3304,10 @@
         <v>443</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
         <v>444</v>
@@ -3316,7 +3316,7 @@
         <v>445</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -3327,13 +3327,13 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -3353,7 +3353,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -3407,7 +3407,7 @@
         <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D19" t="s">
         <v>451</v>
@@ -3441,16 +3441,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E21" t="s">
         <v>456</v>
@@ -3461,13 +3461,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -3510,7 +3510,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -3521,10 +3521,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C25" t="s">
         <v>457</v>
@@ -3541,39 +3541,39 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D27" t="s">
         <v>451</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -3581,27 +3581,27 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
@@ -3610,7 +3610,7 @@
         <v>457</v>
       </c>
       <c r="D29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E29" t="s">
         <v>458</v>
@@ -3621,7 +3621,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>39</v>
@@ -3633,7 +3633,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -3641,59 +3641,59 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D31" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E31" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F31" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C32" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D33" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E33" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F33" t="e">
         <v>#N/A</v>
@@ -3738,19 +3738,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3">
@@ -3761,16 +3761,16 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4">
@@ -3778,19 +3778,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
@@ -3807,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -3821,16 +3821,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
@@ -3841,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -3861,7 +3861,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3875,13 +3875,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -3898,19 +3898,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
@@ -3921,13 +3921,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -3941,13 +3941,13 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F12" t="s">
         <v>25</v>
@@ -3958,19 +3958,19 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F13" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14">
@@ -3981,21 +3981,21 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -4007,7 +4007,7 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -4015,27 +4015,27 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F16" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -4044,24 +4044,24 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -4087,47 +4087,47 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -4135,19 +4135,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -4155,39 +4155,39 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E24" t="s">
-        <v>512</v>
+        <v>410</v>
       </c>
       <c r="F24" t="s">
         <v>513</v>
@@ -4195,13 +4195,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>514</v>
       </c>
       <c r="C25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s">
         <v>515</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
         <v>518</v>
@@ -4227,10 +4227,10 @@
         <v>520</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>521</v>
       </c>
       <c r="F26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -4269,16 +4269,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3">
@@ -4286,16 +4286,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
@@ -4303,16 +4303,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5">
@@ -4323,7 +4323,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -4340,10 +4340,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4380,7 +4380,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
@@ -4388,16 +4388,16 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10">
@@ -4408,13 +4408,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -4425,7 +4425,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -4439,146 +4439,146 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" t="s">
         <v>130</v>
       </c>
-      <c r="D12" t="s">
-        <v>131</v>
-      </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -4589,24 +4589,24 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -4618,66 +4618,66 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -4686,58 +4686,58 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C28" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D28" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E28" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C29" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E29" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4779,19 +4779,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" t="s">
         <v>555</v>
       </c>
-      <c r="D2" t="s">
-        <v>554</v>
-      </c>
       <c r="E2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
@@ -4799,16 +4799,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -4819,19 +4819,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -4848,7 +4848,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>560</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -4865,13 +4865,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
@@ -4879,7 +4879,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -4902,10 +4902,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -4925,7 +4925,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -4939,19 +4939,19 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
         <v>561</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -4962,10 +4962,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>562</v>
@@ -4982,10 +4982,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -4999,10 +4999,10 @@
         <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
         <v>563</v>
@@ -5011,7 +5011,7 @@
         <v>564</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -5019,13 +5019,13 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
         <v>565</v>
@@ -5039,7 +5039,7 @@
         <v>566</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -5059,19 +5059,19 @@
         <v>568</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>569</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -5082,7 +5082,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -5102,13 +5102,13 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>232</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -5116,19 +5116,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -5136,19 +5136,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -5156,39 +5156,39 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" t="s">
         <v>175</v>
-      </c>
-      <c r="E21" t="s">
-        <v>571</v>
-      </c>
-      <c r="F21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -5205,10 +5205,10 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" t="s">
-        <v>560</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -5216,27 +5216,27 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
         <v>175</v>
-      </c>
-      <c r="E24" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -5248,7 +5248,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>126</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -5265,7 +5265,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -5276,16 +5276,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
         <v>567</v>
@@ -5296,56 +5296,56 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
         <v>563</v>
       </c>
       <c r="E28" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
         <v>580</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>581</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>586</v>
@@ -5396,13 +5396,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>591</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
         <v>592</v>
@@ -5459,7 +5459,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -5473,19 +5473,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
         <v>596</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -5493,19 +5493,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>563</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
         <v>597</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -5519,7 +5519,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -5550,7 +5550,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5559,7 +5559,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -5573,19 +5573,19 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -5613,10 +5613,10 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -5636,21 +5636,21 @@
         <v>598</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
         <v>600</v>
       </c>
       <c r="F11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -5670,16 +5670,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
         <v>597</v>
@@ -5690,10 +5690,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
@@ -5705,12 +5705,12 @@
         <v>602</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>25</v>
@@ -5745,12 +5745,12 @@
         <v>603</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -5790,16 +5790,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
         <v>605</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -5825,15 +5825,15 @@
         <v>606</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>607</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="e">
         <v>#N/A</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
         <v>614</v>
@@ -5961,13 +5961,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5978,16 +5978,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -6004,7 +6004,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -6012,7 +6012,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -6032,10 +6032,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -6049,10 +6049,10 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -6066,7 +6066,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -6080,21 +6080,21 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -6103,7 +6103,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -6111,16 +6111,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -6137,24 +6137,24 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -6162,16 +6162,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -6179,16 +6179,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -6196,7 +6196,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6205,15 +6205,15 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>621</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>625</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="e">
         <v>#N/A</v>
@@ -6321,13 +6321,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>633</v>
@@ -6344,7 +6344,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -6353,7 +6353,7 @@
         <v>633</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -6364,10 +6364,10 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>634</v>
@@ -6393,7 +6393,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -6401,7 +6401,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -6427,7 +6427,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -6444,10 +6444,10 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
         <v>635</v>
@@ -6464,7 +6464,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -6484,7 +6484,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -6501,19 +6501,19 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
         <v>636</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -6524,10 +6524,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>634</v>
@@ -6538,27 +6538,27 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>639</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -6593,12 +6593,12 @@
         <v>640</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -6618,16 +6618,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>641</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
         <v>642</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" t="e">
         <v>#N/A</v>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" t="e">
         <v>#N/A</v>
@@ -6732,16 +6732,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -6749,16 +6749,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -6766,16 +6766,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -6789,7 +6789,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -6800,16 +6800,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7">
@@ -6817,10 +6817,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -6837,13 +6837,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -6854,13 +6854,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10">
@@ -6868,140 +6868,140 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
         <v>143</v>
-      </c>
-      <c r="D10" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
         <v>147</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>148</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -7013,49 +7013,49 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
         <v>154</v>
-      </c>
-      <c r="D19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -7064,29 +7064,29 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="e">
         <v>#N/A</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
@@ -7157,19 +7157,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>162</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>163</v>
-      </c>
-      <c r="F2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -7177,19 +7177,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>167</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4">
@@ -7197,19 +7197,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
         <v>170</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>171</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>172</v>
-      </c>
-      <c r="F4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -7226,10 +7226,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
         <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -7243,13 +7243,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -7257,10 +7257,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
         <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>178</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -7283,7 +7283,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -7300,16 +7300,16 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>180</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>181</v>
-      </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -7317,19 +7317,19 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>182</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>183</v>
-      </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -7340,13 +7340,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -7357,24 +7357,24 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -7386,7 +7386,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -7394,19 +7394,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>189</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>190</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -7414,19 +7414,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>191</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>192</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -7434,59 +7434,59 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
         <v>193</v>
       </c>
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" t="s">
-        <v>194</v>
-      </c>
       <c r="F16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
         <v>195</v>
       </c>
-      <c r="B17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
         <v>198</v>
-      </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" t="s">
-        <v>199</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -7494,19 +7494,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -7514,39 +7514,39 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -7554,27 +7554,27 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -7586,7 +7586,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -7606,7 +7606,7 @@
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F24" t="s">
         <v>25</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -7626,7 +7626,7 @@
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -7634,10 +7634,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -7646,7 +7646,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -7654,19 +7654,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
         <v>25</v>
@@ -7674,39 +7674,39 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -7714,7 +7714,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
@@ -7726,7 +7726,7 @@
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
         <v>25</v>
@@ -7734,50 +7734,50 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
         <v>206</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>207</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>208</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>209</v>
-      </c>
-      <c r="F31" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" t="s">
         <v>211</v>
-      </c>
-      <c r="C32" t="s">
-        <v>212</v>
       </c>
       <c r="D32" t="e">
         <v>#N/A</v>
       </c>
       <c r="E32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" t="s">
         <v>213</v>
-      </c>
-      <c r="F32" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" t="e">
         <v>#N/A</v>
@@ -7786,10 +7786,10 @@
         <v>#N/A</v>
       </c>
       <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" t="s">
         <v>216</v>
-      </c>
-      <c r="F33" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -7831,19 +7831,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
         <v>218</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>219</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>220</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3">
@@ -7851,19 +7851,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
         <v>223</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>224</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>225</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>226</v>
-      </c>
-      <c r="F3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -7874,16 +7874,16 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" t="s">
         <v>228</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>229</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>230</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -7894,7 +7894,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -7917,13 +7917,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -7954,13 +7954,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
         <v>232</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>233</v>
-      </c>
-      <c r="E8" t="s">
-        <v>234</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -7974,16 +7974,16 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" t="s">
         <v>235</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>236</v>
       </c>
-      <c r="E9" t="s">
-        <v>237</v>
-      </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -7994,13 +7994,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" t="s">
         <v>238</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>239</v>
-      </c>
-      <c r="E10" t="s">
-        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -8014,13 +8014,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
         <v>233</v>
-      </c>
-      <c r="E11" t="s">
-        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -8034,21 +8034,21 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
         <v>242</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>243</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>244</v>
-      </c>
-      <c r="F12" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -8057,10 +8057,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" t="s">
         <v>233</v>
-      </c>
-      <c r="E13" t="s">
-        <v>234</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -8068,19 +8068,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" t="s">
         <v>247</v>
-      </c>
-      <c r="D14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" t="s">
-        <v>248</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -8088,39 +8088,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" t="s">
         <v>249</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>250</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" t="s">
         <v>251</v>
       </c>
-      <c r="D15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E15" t="s">
-        <v>252</v>
-      </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
@@ -8128,19 +8128,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
         <v>256</v>
-      </c>
-      <c r="D17" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" t="s">
-        <v>257</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -8148,47 +8148,47 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
         <v>232</v>
       </c>
-      <c r="D18" t="s">
-        <v>233</v>
-      </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -8197,7 +8197,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -8208,39 +8208,39 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" t="s">
         <v>261</v>
       </c>
-      <c r="E21" t="s">
-        <v>262</v>
-      </c>
       <c r="F21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -8248,59 +8248,59 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" t="s">
         <v>264</v>
       </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" t="s">
-        <v>243</v>
-      </c>
-      <c r="E23" t="s">
-        <v>265</v>
-      </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
       </c>
       <c r="C24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" t="s">
         <v>266</v>
       </c>
-      <c r="D24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" t="s">
-        <v>267</v>
-      </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -8308,62 +8308,62 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
         <v>268</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>269</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>270</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>271</v>
-      </c>
-      <c r="F26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" t="s">
         <v>273</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>274</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>275</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>276</v>
-      </c>
-      <c r="F27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" t="s">
         <v>278</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>279</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>280</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>281</v>
-      </c>
-      <c r="F28" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -8405,19 +8405,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
         <v>283</v>
       </c>
-      <c r="C2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>284</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>285</v>
-      </c>
-      <c r="F2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="3">
@@ -8425,19 +8425,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" t="s">
         <v>287</v>
-      </c>
-      <c r="F3" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4">
@@ -8445,19 +8445,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -8477,7 +8477,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
@@ -8485,10 +8485,10 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -8505,7 +8505,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -8531,7 +8531,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -8548,7 +8548,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -8557,7 +8557,7 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10">
@@ -8568,13 +8568,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -8588,7 +8588,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -8605,24 +8605,24 @@
         <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" t="s">
         <v>291</v>
-      </c>
-      <c r="F12" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -8634,7 +8634,7 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -8654,7 +8654,7 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s">
         <v>25</v>
@@ -8662,10 +8662,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -8674,35 +8674,35 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -8714,7 +8714,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -8734,7 +8734,7 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
@@ -8742,47 +8742,47 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -8794,7 +8794,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -8802,39 +8802,39 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
         <v>299</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>300</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>301</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>302</v>
-      </c>
-      <c r="F22" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="e">
         <v>#N/A</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D23" t="e">
         <v>#N/A</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" t="e">
         <v>#N/A</v>
@@ -8842,19 +8842,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" t="e">
         <v>#N/A</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" t="e">
         <v>#N/A</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F24" t="e">
         <v>#N/A</v>
@@ -8899,19 +8899,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
         <v>307</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" t="s">
         <v>308</v>
       </c>
-      <c r="D2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" t="s">
-        <v>309</v>
-      </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
@@ -8919,19 +8919,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4">
@@ -8942,16 +8942,16 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
@@ -8965,7 +8965,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -8979,7 +8979,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -8999,19 +8999,19 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8">
@@ -9019,16 +9019,16 @@
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -9042,13 +9042,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -9059,24 +9059,24 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -9088,7 +9088,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
@@ -9096,10 +9096,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9116,59 +9116,59 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
         <v>316</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>317</v>
-      </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
         <v>318</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>319</v>
-      </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" t="s">
         <v>320</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" t="s">
-        <v>321</v>
       </c>
       <c r="F15" t="s">
         <v>25</v>
@@ -9176,13 +9176,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9205,7 +9205,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -9216,47 +9216,47 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9268,7 +9268,7 @@
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
@@ -9276,19 +9276,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F21" t="s">
         <v>25</v>
@@ -9296,7 +9296,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -9308,7 +9308,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -9316,10 +9316,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -9328,47 +9328,47 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -9376,10 +9376,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -9388,7 +9388,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
@@ -9396,39 +9396,39 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
@@ -9436,7 +9436,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -9448,7 +9448,7 @@
         <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
@@ -9456,62 +9456,62 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" t="s">
         <v>329</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>330</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>331</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>332</v>
-      </c>
-      <c r="F30" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
+        <v>333</v>
+      </c>
+      <c r="C31" t="s">
         <v>334</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>335</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>336</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>337</v>
-      </c>
-      <c r="F31" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C32" t="s">
         <v>339</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>340</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>341</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>342</v>
-      </c>
-      <c r="F32" t="s">
-        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -9550,16 +9550,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
         <v>344</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" t="s">
         <v>345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="3">
@@ -9567,16 +9567,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4">
@@ -9584,16 +9584,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
         <v>348</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="5">
@@ -9607,7 +9607,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -9618,7 +9618,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -9641,7 +9641,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -9655,13 +9655,13 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
@@ -9672,13 +9672,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -9689,7 +9689,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -9703,38 +9703,38 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
         <v>351</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -9743,86 +9743,86 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
         <v>347</v>
       </c>
-      <c r="D16" t="s">
-        <v>348</v>
-      </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -9848,35 +9848,35 @@
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -9899,92 +9899,92 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" t="s">
         <v>356</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>357</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>358</v>
-      </c>
-      <c r="E25" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" t="s">
         <v>360</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>361</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>362</v>
-      </c>
-      <c r="E26" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C27" t="s">
         <v>364</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>365</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>366</v>
-      </c>
-      <c r="E27" t="s">
-        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -10026,19 +10026,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" t="s">
         <v>368</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>369</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>370</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>371</v>
-      </c>
-      <c r="F2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="3">
@@ -10049,16 +10049,16 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
@@ -10069,16 +10069,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -10098,7 +10098,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
@@ -10106,7 +10106,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10129,16 +10129,16 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
@@ -10149,16 +10149,16 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
@@ -10169,13 +10169,13 @@
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -10186,30 +10186,30 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>378</v>
       </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>379</v>
-      </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -10223,53 +10223,53 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -10283,47 +10283,47 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -10335,7 +10335,7 @@
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F17" t="s">
         <v>25</v>
@@ -10343,39 +10343,39 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" t="s">
+        <v>383</v>
+      </c>
+      <c r="F18" t="s">
         <v>108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" t="s">
-        <v>383</v>
-      </c>
-      <c r="D18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B19" t="e">
         <v>#N/A</v>
       </c>
       <c r="C19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D19" t="s">
         <v>385</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>386</v>
-      </c>
-      <c r="E19" t="s">
-        <v>387</v>
       </c>
       <c r="F19" t="e">
         <v>#N/A</v>
@@ -10383,22 +10383,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
         <v>388</v>
       </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>389</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>390</v>
-      </c>
-      <c r="F20" t="s">
-        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -10437,16 +10437,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" t="s">
         <v>392</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>393</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>394</v>
-      </c>
-      <c r="E2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3">
@@ -10454,16 +10454,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
@@ -10471,16 +10471,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
@@ -10494,7 +10494,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -10505,7 +10505,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -10522,7 +10522,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -10539,16 +10539,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>398</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9">
@@ -10559,13 +10559,13 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10">
@@ -10573,16 +10573,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>401</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="11">
@@ -10590,123 +10590,123 @@
         <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -10718,63 +10718,63 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -10786,58 +10786,58 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s">
         <v>409</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>410</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>411</v>
-      </c>
-      <c r="E23" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
         <v>413</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>414</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>415</v>
-      </c>
-      <c r="E24" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" t="s">
         <v>417</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>418</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>419</v>
-      </c>
-      <c r="E25" t="s">
-        <v>420</v>
       </c>
     </row>
   </sheetData>
